--- a/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
+++ b/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
+++ b/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
+++ b/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7022,7 +7022,7 @@
         <v>2</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -8254,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="R156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -9990,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -10662,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="R182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -11334,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -12062,7 +12062,7 @@
         <v>2</v>
       </c>
       <c r="R207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="R220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -12902,7 +12902,7 @@
         <v>2</v>
       </c>
       <c r="R222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -14806,7 +14806,7 @@
         <v>2</v>
       </c>
       <c r="R256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="R261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -15534,7 +15534,7 @@
         <v>2</v>
       </c>
       <c r="R269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -16150,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="R288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -17046,7 +17046,7 @@
         <v>2</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -17942,7 +17942,7 @@
         <v>2</v>
       </c>
       <c r="R312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -18278,7 +18278,7 @@
         <v>1</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -19958,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="R348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -21078,7 +21078,7 @@
         <v>2</v>
       </c>
       <c r="R368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -21414,7 +21414,7 @@
         <v>1</v>
       </c>
       <c r="R374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -21694,7 +21694,7 @@
         <v>2</v>
       </c>
       <c r="R379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="R385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -22310,7 +22310,7 @@
         <v>2</v>
       </c>
       <c r="R390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -23542,7 +23542,7 @@
         <v>1</v>
       </c>
       <c r="R412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="R419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -24382,7 +24382,7 @@
         <v>2</v>
       </c>
       <c r="R427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -24718,7 +24718,7 @@
         <v>1</v>
       </c>
       <c r="R433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="R437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="R442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -25334,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="R444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -26622,7 +26622,7 @@
         <v>2</v>
       </c>
       <c r="R467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -27574,7 +27574,7 @@
         <v>1</v>
       </c>
       <c r="R484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -27910,7 +27910,7 @@
         <v>1</v>
       </c>
       <c r="R490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -28078,7 +28078,7 @@
         <v>2</v>
       </c>
       <c r="R493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -28582,7 +28582,7 @@
         <v>1</v>
       </c>
       <c r="R502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="R516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -29646,7 +29646,7 @@
         <v>2</v>
       </c>
       <c r="R521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -29758,7 +29758,7 @@
         <v>1</v>
       </c>
       <c r="R523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -30710,7 +30710,7 @@
         <v>2</v>
       </c>
       <c r="R540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541">
@@ -32278,7 +32278,7 @@
         <v>1</v>
       </c>
       <c r="R568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -32334,7 +32334,7 @@
         <v>2</v>
       </c>
       <c r="R569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -32950,7 +32950,7 @@
         <v>1</v>
       </c>
       <c r="R580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -33062,7 +33062,7 @@
         <v>2</v>
       </c>
       <c r="R582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -33286,7 +33286,7 @@
         <v>1</v>
       </c>
       <c r="R586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -33734,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="R600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -36590,7 +36590,7 @@
         <v>2</v>
       </c>
       <c r="R645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -36702,7 +36702,7 @@
         <v>1</v>
       </c>
       <c r="R647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -38214,7 +38214,7 @@
         <v>2</v>
       </c>
       <c r="R674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -39054,7 +39054,7 @@
         <v>1</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39222,7 +39222,7 @@
         <v>2</v>
       </c>
       <c r="R692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -40006,7 +40006,7 @@
         <v>2</v>
       </c>
       <c r="R706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -40454,7 +40454,7 @@
         <v>2</v>
       </c>
       <c r="R714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -41686,7 +41686,7 @@
         <v>2</v>
       </c>
       <c r="R736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -42190,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="R745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -42862,7 +42862,7 @@
         <v>2</v>
       </c>
       <c r="R757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -43198,7 +43198,7 @@
         <v>1</v>
       </c>
       <c r="R763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -43534,7 +43534,7 @@
         <v>2</v>
       </c>
       <c r="R769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -43926,7 +43926,7 @@
         <v>1</v>
       </c>
       <c r="R776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -44206,7 +44206,7 @@
         <v>2</v>
       </c>
       <c r="R781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -45046,7 +45046,7 @@
         <v>2</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -47846,7 +47846,7 @@
         <v>1</v>
       </c>
       <c r="R846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -47958,7 +47958,7 @@
         <v>2</v>
       </c>
       <c r="R848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -48182,7 +48182,7 @@
         <v>1</v>
       </c>
       <c r="R852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -48294,7 +48294,7 @@
         <v>2</v>
       </c>
       <c r="R854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -48854,7 +48854,7 @@
         <v>1</v>
       </c>
       <c r="R864" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -49526,7 +49526,7 @@
         <v>1</v>
       </c>
       <c r="R876" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
@@ -49862,7 +49862,7 @@
         <v>2</v>
       </c>
       <c r="R882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="R893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -50590,7 +50590,7 @@
         <v>2</v>
       </c>
       <c r="R895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
       <c r="R902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -51430,7 +51430,7 @@
         <v>1</v>
       </c>
       <c r="R910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -53166,7 +53166,7 @@
         <v>1</v>
       </c>
       <c r="R941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -54398,7 +54398,7 @@
         <v>1</v>
       </c>
       <c r="R963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
@@ -55014,7 +55014,7 @@
         <v>2</v>
       </c>
       <c r="R974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975">
@@ -55238,7 +55238,7 @@
         <v>1</v>
       </c>
       <c r="R978" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979">
@@ -55518,7 +55518,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -55854,7 +55854,7 @@
         <v>1</v>
       </c>
       <c r="R989" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -56470,7 +56470,7 @@
         <v>2</v>
       </c>
       <c r="R1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -57646,7 +57646,7 @@
         <v>1</v>
       </c>
       <c r="R1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -57758,7 +57758,7 @@
         <v>2</v>
       </c>
       <c r="R1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -58318,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -58822,7 +58822,7 @@
         <v>2</v>
       </c>
       <c r="R1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -58934,7 +58934,7 @@
         <v>1</v>
       </c>
       <c r="R1044" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -59270,7 +59270,7 @@
         <v>1</v>
       </c>
       <c r="R1050" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -59606,7 +59606,7 @@
         <v>2</v>
       </c>
       <c r="R1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -60054,7 +60054,7 @@
         <v>1</v>
       </c>
       <c r="R1064" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -60726,7 +60726,7 @@
         <v>2</v>
       </c>
       <c r="R1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -63246,7 +63246,7 @@
         <v>1</v>
       </c>
       <c r="R1121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -63358,7 +63358,7 @@
         <v>2</v>
       </c>
       <c r="R1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -64030,7 +64030,7 @@
         <v>2</v>
       </c>
       <c r="R1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -64704,6 +64704,114 @@
       <c r="R1147" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>81.20999908447266</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>87</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>80.94999694824219</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>80.94999694824219</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>2010085</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>79.26999664306641</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>74.30000305175781</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>1848737</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
+++ b/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4275,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -5283,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7022,7 +7022,7 @@
         <v>2</v>
       </c>
       <c r="R117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -8254,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="R156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -9990,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="R170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -10662,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="R182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -11334,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -12062,7 +12062,7 @@
         <v>2</v>
       </c>
       <c r="R207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="R220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -12902,7 +12902,7 @@
         <v>2</v>
       </c>
       <c r="R222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -14806,7 +14806,7 @@
         <v>2</v>
       </c>
       <c r="R256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="R261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -15534,7 +15534,7 @@
         <v>2</v>
       </c>
       <c r="R269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -16150,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="R288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -17046,7 +17046,7 @@
         <v>2</v>
       </c>
       <c r="R296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -17942,7 +17942,7 @@
         <v>2</v>
       </c>
       <c r="R312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -18278,7 +18278,7 @@
         <v>1</v>
       </c>
       <c r="R318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="R342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -19958,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="R348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -21078,7 +21078,7 @@
         <v>2</v>
       </c>
       <c r="R368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -21414,7 +21414,7 @@
         <v>1</v>
       </c>
       <c r="R374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -21694,7 +21694,7 @@
         <v>2</v>
       </c>
       <c r="R379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="R385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -22310,7 +22310,7 @@
         <v>2</v>
       </c>
       <c r="R390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -23542,7 +23542,7 @@
         <v>1</v>
       </c>
       <c r="R412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="R419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -24382,7 +24382,7 @@
         <v>2</v>
       </c>
       <c r="R427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -24718,7 +24718,7 @@
         <v>1</v>
       </c>
       <c r="R433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="R437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="R442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -25334,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="R444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -26622,7 +26622,7 @@
         <v>2</v>
       </c>
       <c r="R467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -27574,7 +27574,7 @@
         <v>1</v>
       </c>
       <c r="R484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -27910,7 +27910,7 @@
         <v>1</v>
       </c>
       <c r="R490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -28078,7 +28078,7 @@
         <v>2</v>
       </c>
       <c r="R493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -28582,7 +28582,7 @@
         <v>1</v>
       </c>
       <c r="R502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="R516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -29646,7 +29646,7 @@
         <v>2</v>
       </c>
       <c r="R521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -29758,7 +29758,7 @@
         <v>1</v>
       </c>
       <c r="R523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -30710,7 +30710,7 @@
         <v>2</v>
       </c>
       <c r="R540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -32278,7 +32278,7 @@
         <v>1</v>
       </c>
       <c r="R568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -32334,7 +32334,7 @@
         <v>2</v>
       </c>
       <c r="R569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -32950,7 +32950,7 @@
         <v>1</v>
       </c>
       <c r="R580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -33062,7 +33062,7 @@
         <v>2</v>
       </c>
       <c r="R582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -33286,7 +33286,7 @@
         <v>1</v>
       </c>
       <c r="R586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -33734,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="R594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="R600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -36590,7 +36590,7 @@
         <v>2</v>
       </c>
       <c r="R645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -36702,7 +36702,7 @@
         <v>1</v>
       </c>
       <c r="R647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -38214,7 +38214,7 @@
         <v>2</v>
       </c>
       <c r="R674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -39054,7 +39054,7 @@
         <v>1</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39222,7 +39222,7 @@
         <v>2</v>
       </c>
       <c r="R692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -40006,7 +40006,7 @@
         <v>2</v>
       </c>
       <c r="R706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -40454,7 +40454,7 @@
         <v>2</v>
       </c>
       <c r="R714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -41686,7 +41686,7 @@
         <v>2</v>
       </c>
       <c r="R736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -42190,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="R745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -42862,7 +42862,7 @@
         <v>2</v>
       </c>
       <c r="R757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -43198,7 +43198,7 @@
         <v>1</v>
       </c>
       <c r="R763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -43534,7 +43534,7 @@
         <v>2</v>
       </c>
       <c r="R769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -43926,7 +43926,7 @@
         <v>1</v>
       </c>
       <c r="R776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -44206,7 +44206,7 @@
         <v>2</v>
       </c>
       <c r="R781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -45046,7 +45046,7 @@
         <v>2</v>
       </c>
       <c r="R796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -47846,7 +47846,7 @@
         <v>1</v>
       </c>
       <c r="R846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -47958,7 +47958,7 @@
         <v>2</v>
       </c>
       <c r="R848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -48182,7 +48182,7 @@
         <v>1</v>
       </c>
       <c r="R852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -48294,7 +48294,7 @@
         <v>2</v>
       </c>
       <c r="R854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -48854,7 +48854,7 @@
         <v>1</v>
       </c>
       <c r="R864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -49526,7 +49526,7 @@
         <v>1</v>
       </c>
       <c r="R876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -49862,7 +49862,7 @@
         <v>2</v>
       </c>
       <c r="R882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="R893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -50590,7 +50590,7 @@
         <v>2</v>
       </c>
       <c r="R895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
       <c r="R902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="R906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -51430,7 +51430,7 @@
         <v>1</v>
       </c>
       <c r="R910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -53166,7 +53166,7 @@
         <v>1</v>
       </c>
       <c r="R941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -54398,7 +54398,7 @@
         <v>1</v>
       </c>
       <c r="R963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -55014,7 +55014,7 @@
         <v>2</v>
       </c>
       <c r="R974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -55238,7 +55238,7 @@
         <v>1</v>
       </c>
       <c r="R978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979">
@@ -55518,7 +55518,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -55854,7 +55854,7 @@
         <v>1</v>
       </c>
       <c r="R989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -56470,7 +56470,7 @@
         <v>2</v>
       </c>
       <c r="R1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -57646,7 +57646,7 @@
         <v>1</v>
       </c>
       <c r="R1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022">
@@ -57758,7 +57758,7 @@
         <v>2</v>
       </c>
       <c r="R1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024">
@@ -58318,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="R1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -58822,7 +58822,7 @@
         <v>2</v>
       </c>
       <c r="R1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043">
@@ -58934,7 +58934,7 @@
         <v>1</v>
       </c>
       <c r="R1044" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045">
@@ -59270,7 +59270,7 @@
         <v>1</v>
       </c>
       <c r="R1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -59606,7 +59606,7 @@
         <v>2</v>
       </c>
       <c r="R1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -60054,7 +60054,7 @@
         <v>1</v>
       </c>
       <c r="R1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065">
@@ -60726,7 +60726,7 @@
         <v>2</v>
       </c>
       <c r="R1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
@@ -63246,7 +63246,7 @@
         <v>1</v>
       </c>
       <c r="R1121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122">
@@ -63358,7 +63358,7 @@
         <v>2</v>
       </c>
       <c r="R1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124">
@@ -64030,7 +64030,7 @@
         <v>2</v>
       </c>
       <c r="R1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -64637,7 +64637,7 @@
         <v>23</v>
       </c>
       <c r="O1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1146" t="n">
         <v>0</v>
@@ -64749,7 +64749,7 @@
         <v>25</v>
       </c>
       <c r="O1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1148" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,1829 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>74.80000305175781</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>73.30000305175781</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>75.12999725341797</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>1147265</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>75.58000183105469</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>74.31999969482422</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>77.48000335693359</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>2758794</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>72.65000152587891</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>846975</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>72.84999847412109</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>69</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>76.05999755859375</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>1030652</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>74.66000366210938</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>77.73999786376953</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>2030414</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>77</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>71.84999847412109</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>863810</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>74.48999786376953</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>70.09999847412109</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>71.18000030517578</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>589741</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>71.79000091552734</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>71.19000244140625</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>75.19000244140625</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>941333</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>80.47000122070312</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>72.11000061035156</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>76.54000091552734</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>1482881</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>76.84999847412109</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>72</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>72.41000366210938</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>488270</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>72.87999725341797</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>73.84999847412109</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>70.70999908447266</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>71.65000152587891</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>279922</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>74.58999633789062</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>70.20999908447266</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>72.51000213623047</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>479397</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>73.08999633789062</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>78.59999847412109</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>72.33000183105469</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>75.55000305175781</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>1091349</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>75.11000061035156</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>72.68000030517578</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>750748</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>73.19999694824219</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>67.31999969482422</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>71.36000061035156</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>456229</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>72</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>67.52999877929688</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>69.26999664306641</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>285812</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>70.01999664306641</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>70.83999633789062</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>60.06000137329102</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>60.93999862670898</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>311388</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>60.90000152587891</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>67.80000305175781</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>231793</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>62.83000183105469</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>63.63000106811523</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>246971</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>63.63000106811523</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>64.01999664306641</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>57.20000076293945</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>58.29999923706055</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>185374</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>60.88000106811523</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>56.59999847412109</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>59.81999969482422</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>158950</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>59.40999984741211</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>64.34999847412109</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>270833</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>64.34999847412109</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>66.87999725341797</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>64.87999725341797</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>264077</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>67.98999786376953</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>62</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>62.93000030517578</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>223396</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>62.83000183105469</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>63.97999954223633</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>59.31000137329102</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>59.88000106811523</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>165112</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>59.88000106811523</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>60.4900016784668</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>57.29999923706055</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>57.88999938964844</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>129036</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>57.93999862670898</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>59.77000045776367</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>55.54999923706055</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>58.27000045776367</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>164486</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>58.4900016784668</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>58.4900016784668</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>50.95000076293945</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>51.38999938964844</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>245310</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>52.29000091552734</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>60.9900016784668</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>48.61000061035156</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>60.38999938964844</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>388759</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>62.0099983215332</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>54.2599983215332</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>54.72000122070312</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>360485</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>55.77999877929688</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>56.18999862670898</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>53.59000015258789</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>464275</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>53.95000076293945</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>54.45000076293945</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>51.15000152587891</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>51.88999938964844</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>108265</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>52.97999954223633</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>53.47999954223633</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>46.2599983215332</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>420789</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>49.93999862670898</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>42.06999969482422</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>47.38000106811523</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>224165</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>47</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>42.15000152587891</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>42.38000106811523</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>85329</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
+++ b/stock_historical_data/1wk/RAJSREESUG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64867,7 +64867,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64919,7 +64921,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64971,7 +64975,9 @@
       <c r="Q1152" t="n">
         <v>1</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65023,7 +65029,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65075,7 +65083,9 @@
       <c r="Q1154" t="n">
         <v>2</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65137,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65179,7 +65191,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65231,7 +65245,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65283,7 +65299,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65335,7 +65353,9 @@
       <c r="Q1159" t="n">
         <v>1</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65387,7 +65407,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65439,7 +65461,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65491,7 +65515,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65543,7 +65569,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65595,7 +65623,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65647,7 +65677,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65699,7 +65731,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65751,7 +65785,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65803,7 +65839,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65855,7 +65893,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65907,7 +65947,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65959,7 +66001,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66011,7 +66055,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66063,7 +66109,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66115,7 +66163,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66167,7 +66217,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66219,7 +66271,9 @@
       <c r="Q1176" t="n">
         <v>1</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66271,7 +66325,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66323,7 +66379,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66375,7 +66433,9 @@
       <c r="Q1179" t="n">
         <v>2</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66427,7 +66487,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66479,7 +66541,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66531,7 +66595,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66583,7 +66649,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66635,7 +66703,477 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>42.38000106811523</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>45.47999954223633</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>37.65000152587891</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>43.7400016784668</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>323746</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>44.34000015258789</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>39.45999908447266</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>160916</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>39</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>43.06000137329102</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>37.52000045776367</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>42.58000183105469</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>317993</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>44.58000183105469</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>46.34999847412109</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>38.34000015258789</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>620179</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>38.34000015258789</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>44.29000091552734</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>37.9900016784668</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>260847</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>35.59999847412109</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>41.59000015258789</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>35.59999847412109</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>40.88999938964844</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>138298</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>40.88999938964844</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>49.18000030517578</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>40.88999938964844</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>48.09000015258789</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>309845</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>48.15000152587891</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>51.9900016784668</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>46.40000152587891</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>47.2599983215332</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>415304</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>47.68999862670898</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>48.0099983215332</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>44.52000045776367</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>44.68999862670898</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>129767</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
